--- a/trunk/Org. Interna/llamados de atencion y memorandos.xlsx
+++ b/trunk/Org. Interna/llamados de atencion y memorandos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="17">
   <si>
     <t>LLAMADOS DE ATENCIÓN POR ASISTENCIA</t>
   </si>
@@ -68,12 +68,15 @@
   <si>
     <t>fecha de los memorandos por tareas y descripción</t>
   </si>
+  <si>
+    <t>TERCER HITO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +87,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -127,11 +138,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -147,6 +195,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -523,17 +580,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
@@ -692,6 +751,9 @@
       <c r="J16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -701,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -818,17 +880,19 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+    <row r="5" spans="1:10" ht="18.75">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1"/>
@@ -963,6 +1027,9 @@
       <c r="J16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:J5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -972,7 +1039,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1053,17 +1120,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
@@ -1222,6 +1291,9 @@
       <c r="J16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1230,7 +1302,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6">
+        <v>40249</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="6">
+        <v>40251</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6">
+        <v>40255</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>40255</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6">
+        <v>40280</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1303,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
@@ -1323,7 +1679,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="6">
-        <v>40251</v>
+        <v>40255</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1332,25 +1688,19 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6">
-        <v>40255</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>40255</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1"/>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1"/>
@@ -1359,10 +1709,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6">
-        <v>40280</v>
+        <v>40296</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1501,16 +1851,19 @@
       <c r="J16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1592,23 +1945,23 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6">
-        <v>40249</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="6">
-        <v>40255</v>
+        <v>40262</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="6">
+        <v>40267</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
@@ -1617,10 +1970,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="6">
+        <v>40267</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>40281</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
@@ -1629,8 +1990,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="6">
+        <v>40280</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1641,8 +2006,12 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="6">
+        <v>40281</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1653,27 +2022,37 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="6">
+        <v>40281</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+    <row r="8" spans="1:10" ht="18.75">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="6">
+        <v>40290</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1768,293 +2147,10 @@
       <c r="J16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="45">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="60">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="6">
-        <v>40262</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>40267</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6">
-        <v>40267</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>40281</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6">
-        <v>40280</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6">
-        <v>40281</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6">
-        <v>40281</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>